--- a/xlsx/酒_intext.xlsx
+++ b/xlsx/酒_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="551">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="543">
   <si>
     <t>酒</t>
   </si>
@@ -41,13 +41,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9D%88%E9%95%B7%E9%A1%9E</t>
   </si>
   <si>
-    <t>靈長類</t>
+    <t>灵长类</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B8%85%E7%A8%97%E9%A1%9E%E9%88%94</t>
   </si>
   <si>
-    <t>清稗類鈔</t>
+    <t>清稗类钞</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%8E%E8%B0%83%E5%85%83</t>
@@ -65,7 +65,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%8E%E6%97%A5%E8%8F%AF</t>
   </si>
   <si>
-    <t>李日華</t>
+    <t>李日华</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E7%9F%B3%E5%99%A8%E6%97%B6%E4%BB%A3</t>
@@ -77,7 +77,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E7%B4%A2%E4%B8%8D%E9%81%94%E7%B1%B3%E4%BA%9E</t>
   </si>
   <si>
-    <t>美索不達米亞</t>
+    <t>美索不达米亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B2%AE%E9%A3%9F</t>
@@ -119,19 +119,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A8%B1%E6%85%8E</t>
   </si>
   <si>
-    <t>許慎</t>
+    <t>许慎</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AA%AA%E6%96%87%E8%A7%A3%E5%AD%97</t>
   </si>
   <si>
-    <t>說文解字</t>
+    <t>说文解字</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E5%B9%B3%E5%BE%A1%E8%A6%BD</t>
   </si>
   <si>
-    <t>太平御覽</t>
+    <t>太平御览</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8A%B1%E6%9C%B4%E5%AD%90</t>
@@ -203,25 +203,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%88%B0%E5%9C%8B%E7%AD%96</t>
   </si>
   <si>
-    <t>戰國策</t>
+    <t>战国策</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B1%9F%E7%B5%B1</t>
   </si>
   <si>
-    <t>江統</t>
+    <t>江统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%9A%E6%9B%B8</t>
   </si>
   <si>
-    <t>尚書</t>
+    <t>尚书</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%89%E6%9B%B8</t>
   </si>
   <si>
-    <t>晉書</t>
+    <t>晋书</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%BB%E7%94%9F</t>
@@ -233,19 +233,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%BB%E5%A0%85</t>
   </si>
   <si>
-    <t>苻堅</t>
+    <t>苻坚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2</t>
   </si>
   <si>
-    <t>歐洲</t>
+    <t>欧洲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9C%8D%E4%BA%82</t>
   </si>
   <si>
-    <t>霍亂</t>
+    <t>霍乱</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8F%E7%89%B9%E5%8A%A0</t>
@@ -257,7 +257,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A6%AE%E9%81%8B</t>
   </si>
   <si>
-    <t>禮運</t>
+    <t>礼运</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%91%A8%E5%AE%98</t>
@@ -275,7 +275,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%B4%89%E7%89%87</t>
   </si>
   <si>
-    <t>鴉片</t>
+    <t>鸦片</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E6%9F%AF</t>
@@ -317,13 +317,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%85%99%E8%8D%89</t>
   </si>
   <si>
-    <t>煙草</t>
+    <t>烟草</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%80%E9%80%A0%E9%85%92</t>
   </si>
   <si>
-    <t>釀造酒</t>
+    <t>酿造酒</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%92%B8%E9%A6%8F%E9%85%92</t>
@@ -563,13 +563,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%90%96%E9%A0%AD%E4%B8%B8</t>
   </si>
   <si>
-    <t>搖頭丸</t>
+    <t>摇头丸</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E6%9F%AF%E9%B9%BC</t>
   </si>
   <si>
-    <t>古柯鹼</t>
+    <t>古柯碱</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E6%B4%9B%E5%9B%A0</t>
@@ -581,19 +581,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B8%85%E7%95%B0%E9%8C%84</t>
   </si>
   <si>
-    <t>清異錄</t>
+    <t>清异录</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BE%E6%82%94%E7%B6%93</t>
   </si>
   <si>
-    <t>百悔經</t>
+    <t>百悔经</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E5%9C%8B%E5%BF%97</t>
   </si>
   <si>
-    <t>三國志</t>
+    <t>三国志</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9F%A6%E6%9B%9C</t>
@@ -605,7 +605,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%94%B0%E9%8D%8B%E5%8F%8B%E6%99%82</t>
   </si>
   <si>
-    <t>田鍋友時</t>
+    <t>田锅友时</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/WHO</t>
@@ -689,7 +689,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%96%AF%E8%98%AD%E6%95%99</t>
   </si>
   <si>
-    <t>伊斯蘭教</t>
+    <t>伊斯兰教</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E7%9D%A3%E5%AE%97%E6%95%99</t>
@@ -707,7 +707,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%B4%E8%85%90%E9%85%92</t>
   </si>
   <si>
-    <t>貴腐酒</t>
+    <t>贵腐酒</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%BC%BA%E8%91%A1%E8%90%84%E9%85%92</t>
@@ -755,19 +755,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%88%E6%B3%95%E9%A3%B2%E9%85%92%E5%B9%B4%E9%BD%A1</t>
   </si>
   <si>
-    <t>合法飲酒年齡</t>
+    <t>合法饮酒年龄</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E9%85%92%E6%96%87%E5%8C%96</t>
   </si>
   <si>
-    <t>中國酒文化</t>
+    <t>中国酒文化</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Template_talk:%E9%85%92%E7%B2%BE%E9%A3%B2%E6%96%99</t>
   </si>
   <si>
-    <t>Template talk-酒精飲料</t>
+    <t>Template talk-酒精饮料</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/History_of_alcoholic_beverages</t>
@@ -779,13 +779,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%95%A4%E9%85%92%E6%AD%B7%E5%8F%B2</t>
   </si>
   <si>
-    <t>啤酒歷史</t>
+    <t>啤酒历史</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%91%A1%E8%90%84%E9%85%92%E6%AD%B7%E5%8F%B2</t>
   </si>
   <si>
-    <t>葡萄酒歷史</t>
+    <t>葡萄酒历史</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%85%BF%E9%85%92</t>
@@ -797,19 +797,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%92%B8%E9%A4%BE</t>
   </si>
   <si>
-    <t>蒸餾</t>
+    <t>蒸馏</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%85%92%E7%B2%BE%E7%99%BC%E9%85%B5</t>
   </si>
   <si>
-    <t>酒精發酵</t>
+    <t>酒精发酵</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%91%A1%E8%90%84%E9%85%92%E9%87%80%E8%A3%BD</t>
   </si>
   <si>
-    <t>葡萄酒釀製</t>
+    <t>葡萄酒酿制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B1%B3%E9%85%92</t>
@@ -839,15 +839,9 @@
     <t>https://zh.wikipedia.org/wiki/%E8%98%8B%E6%9E%9C%E9%85%92</t>
   </si>
   <si>
-    <t>蘋果酒</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E8%98%AD%E5%9C%B0</t>
   </si>
   <si>
-    <t>白蘭地</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%90%B4%E9%85%92</t>
   </si>
   <si>
@@ -857,25 +851,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%98%AD%E5%A7%86%E9%85%92</t>
   </si>
   <si>
-    <t>蘭姆酒</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BE%8D%E8%88%8C%E8%98%AD%E9%85%92</t>
   </si>
   <si>
-    <t>龍舌蘭酒</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%87%92%E9%85%92</t>
   </si>
   <si>
-    <t>燒酒</t>
+    <t>烧酒</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC%E7%87%92%E9%85%92</t>
   </si>
   <si>
-    <t>日本燒酒</t>
+    <t>日本烧酒</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9F%A9%E5%9B%BD%E7%83%A7%E9%85%92</t>
@@ -887,9 +875,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%9B%E5%AC%8C%E9%85%92</t>
   </si>
   <si>
-    <t>力嬌酒</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E5%BE%B7%E6%8B%89%E9%85%92</t>
   </si>
   <si>
@@ -923,13 +908,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B9%B2%E9%82%91%E7%99%BD%E8%98%AD%E5%9C%B0</t>
   </si>
   <si>
-    <t>干邑白蘭地</t>
+    <t>干邑白兰地</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%85%E9%A6%AC%E9%82%91%E7%99%BD%E8%98%AD%E5%9C%B0</t>
   </si>
   <si>
-    <t>雅馬邑白蘭地</t>
+    <t>雅马邑白兰地</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9A%AE%E6%96%AF%E5%8F%AF</t>
@@ -965,7 +950,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%98%8B%E6%9E%9C</t>
   </si>
   <si>
-    <t>蘋果</t>
+    <t>苹果</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Applejack_(beverage)</t>
@@ -1007,13 +992,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%81%B0%E6%81%B0_(%E7%99%BD%E8%98%AD%E5%9C%B0)</t>
   </si>
   <si>
-    <t>恰恰 (白蘭地)</t>
+    <t>恰恰 (白兰地)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B8%A3%E9%87%80%E7%99%BD%E8%98%AD%E5%9C%B0</t>
   </si>
   <si>
-    <t>渣釀白蘭地</t>
+    <t>渣酿白兰地</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Pomace_brandy</t>
@@ -1073,7 +1058,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E5%9F%BA%E4%BA%9E</t>
   </si>
   <si>
-    <t>拉基亞</t>
+    <t>拉基亚</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Schnaps</t>
@@ -1085,25 +1070,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B3%A7%E9%A3%9F</t>
   </si>
   <si>
-    <t>糧食</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E9%BA%A5</t>
   </si>
   <si>
-    <t>大麥</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%98%87%E6%A0%BC%E8%98%AD%E5%A8%81%E5%A3%AB%E5%BF%8C</t>
   </si>
   <si>
-    <t>蘇格蘭威士忌</t>
+    <t>苏格兰威士忌</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E7%88%BE%E8%98%AD%E5%A8%81%E5%A3%AB%E5%BF%8C</t>
   </si>
   <si>
-    <t>愛爾蘭威士忌</t>
+    <t>爱尔兰威士忌</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC%E5%A8%81%E5%A3%AB%E5%BF%8C</t>
@@ -1157,9 +1136,6 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9F%93%E5%9C%8B%E7%87%92%E9%85%92</t>
   </si>
   <si>
-    <t>韓國燒酒</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A1%E7%9B%9B</t>
   </si>
   <si>
@@ -1169,7 +1145,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BB%91%E9%BA%A5</t>
   </si>
   <si>
-    <t>黑麥</t>
+    <t>黑麦</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Korn_(liquor)</t>
@@ -1211,13 +1187,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E9%96%80%E9%AB%98%E7%B2%B1%E9%85%92</t>
   </si>
   <si>
-    <t>金門高粱酒</t>
+    <t>金门高粱酒</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E9%BA%AF%E9%85%92</t>
   </si>
   <si>
-    <t>大麯酒</t>
+    <t>大曲酒</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/American_whiskey</t>
@@ -1235,13 +1211,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BE%8D%E8%88%8C%E8%98%AD</t>
   </si>
   <si>
-    <t>龍舌蘭</t>
+    <t>龙舌兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A2%85%E6%96%AF%E5%8D%A1%E7%88%BE%E9%85%92</t>
   </si>
   <si>
-    <t>梅斯卡爾酒</t>
+    <t>梅斯卡尔酒</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%98%E8%94%97</t>
@@ -1373,7 +1349,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%B2%E8%8E%93</t>
   </si>
   <si>
-    <t>雲莓</t>
+    <t>云莓</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Lakka</t>
@@ -1565,7 +1541,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AA%B8%E6%AA%AC%E9%85%92</t>
   </si>
   <si>
-    <t>檸檬酒</t>
+    <t>柠檬酒</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Schnapps</t>
@@ -1589,7 +1565,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%8E%AE%E9%9D%9C%E5%8A%91</t>
   </si>
   <si>
-    <t>鎮靜劑</t>
+    <t>镇静剂</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E7%9C%A0%E8%8D%AF</t>
@@ -1601,13 +1577,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%83%85%E6%84%9F%E9%9A%9C%E7%A4%99</t>
   </si>
   <si>
-    <t>情感障礙</t>
+    <t>情感障碍</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%BF%E5%90%8D%E6%88%92%E9%85%92%E6%9C%83</t>
   </si>
   <si>
-    <t>匿名戒酒會</t>
+    <t>匿名戒酒会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A6%81%E9%85%92%E4%BB%A4</t>
@@ -1619,13 +1595,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E7%9D%A3%E6%95%99%E5%B0%8D%E9%85%92%E7%9A%84%E8%A7%80%E9%BB%9E</t>
   </si>
   <si>
-    <t>基督教對酒的觀點</t>
+    <t>基督教对酒的观点</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E7%B6%93%E4%B8%AD%E7%9A%84%E9%85%92</t>
   </si>
   <si>
-    <t>聖經中的酒</t>
+    <t>圣经中的酒</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%85%92%E7%A5%9E</t>
@@ -1637,7 +1613,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A1%80%E6%B6%B2%E9%85%92%E7%B2%BE%E6%BF%83%E5%BA%A6</t>
   </si>
   <si>
-    <t>血液酒精濃度</t>
+    <t>血液酒精浓度</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%B6%E5%BA%AD%E6%9A%B4%E5%8A%9B</t>
@@ -1649,13 +1625,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%86%89%E9%85%92%E9%A7%95%E9%A7%9B</t>
   </si>
   <si>
-    <t>醉酒駕駛</t>
+    <t>醉酒驾驶</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B%E6%82%96%E8%AB%96</t>
   </si>
   <si>
-    <t>法國悖論</t>
+    <t>法国悖论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%81%E9%85%92</t>
@@ -1667,7 +1643,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A6%81%E9%85%92%E9%81%8B%E5%8B%95</t>
   </si>
   <si>
-    <t>禁酒運動</t>
+    <t>禁酒运动</t>
   </si>
 </sst>
 </file>
@@ -6040,7 +6016,7 @@
         <v>273</v>
       </c>
       <c r="F139" t="s">
-        <v>274</v>
+        <v>126</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -6066,10 +6042,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F140" t="s">
-        <v>276</v>
+        <v>120</v>
       </c>
       <c r="G140" t="n">
         <v>4</v>
@@ -6095,10 +6071,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F141" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="G141" t="n">
         <v>2</v>
@@ -6124,10 +6100,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F142" t="s">
-        <v>280</v>
+        <v>148</v>
       </c>
       <c r="G142" t="n">
         <v>2</v>
@@ -6153,10 +6129,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="F143" t="s">
-        <v>282</v>
+        <v>146</v>
       </c>
       <c r="G143" t="n">
         <v>2</v>
@@ -6182,10 +6158,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="F144" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="G144" t="n">
         <v>4</v>
@@ -6211,10 +6187,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="F145" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="G145" t="n">
         <v>2</v>
@@ -6240,10 +6216,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="F146" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -6269,10 +6245,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="F147" t="s">
-        <v>290</v>
+        <v>244</v>
       </c>
       <c r="G147" t="n">
         <v>2</v>
@@ -6298,10 +6274,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="F148" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -6327,10 +6303,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="F149" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -6356,10 +6332,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="F150" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -6385,10 +6361,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="F151" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="G151" t="n">
         <v>2</v>
@@ -6414,10 +6390,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="F152" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="G152" t="n">
         <v>10</v>
@@ -6443,10 +6419,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="F153" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -6472,10 +6448,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="F154" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -6501,10 +6477,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="F155" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -6530,10 +6506,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="F156" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -6559,10 +6535,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="F157" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -6588,10 +6564,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="F158" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="G158" t="n">
         <v>2</v>
@@ -6617,10 +6593,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="F159" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -6646,10 +6622,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="F160" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="G160" t="n">
         <v>2</v>
@@ -6675,10 +6651,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="F161" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -6704,10 +6680,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="F162" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -6733,10 +6709,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="F163" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="G163" t="n">
         <v>2</v>
@@ -6762,10 +6738,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="F164" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -6791,10 +6767,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="F165" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -6820,10 +6796,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="F166" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="G166" t="n">
         <v>2</v>
@@ -6849,10 +6825,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="F167" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -6878,10 +6854,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="F168" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -6907,10 +6883,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="F169" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -6936,10 +6912,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="F170" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="G170" t="n">
         <v>2</v>
@@ -6965,10 +6941,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="F171" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="G171" t="n">
         <v>2</v>
@@ -6994,10 +6970,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="F172" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="G172" t="n">
         <v>2</v>
@@ -7023,10 +6999,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="F173" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="G173" t="n">
         <v>2</v>
@@ -7052,10 +7028,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="F174" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -7081,10 +7057,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="F175" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -7110,10 +7086,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="F176" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="G176" t="n">
         <v>2</v>
@@ -7139,10 +7115,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="F177" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -7168,10 +7144,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="F178" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -7197,10 +7173,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="F179" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="G179" t="n">
         <v>2</v>
@@ -7226,10 +7202,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="F180" t="s">
-        <v>356</v>
+        <v>22</v>
       </c>
       <c r="G180" t="n">
         <v>2</v>
@@ -7255,10 +7231,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="F181" t="s">
-        <v>358</v>
+        <v>30</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -7284,10 +7260,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="F182" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -7313,10 +7289,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="F183" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -7342,10 +7318,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="F184" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -7371,10 +7347,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="F185" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="G185" t="n">
         <v>2</v>
@@ -7400,10 +7376,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="F186" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -7429,10 +7405,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="F187" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -7458,10 +7434,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="F188" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -7487,10 +7463,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="F189" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -7516,10 +7492,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="F190" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -7545,10 +7521,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="F191" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -7574,10 +7550,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="F192" t="s">
-        <v>380</v>
+        <v>284</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -7603,10 +7579,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="F193" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -7632,10 +7608,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="F194" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -7661,10 +7637,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="F195" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -7690,10 +7666,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="F196" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -7719,10 +7695,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="F197" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -7748,10 +7724,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="F198" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -7777,10 +7753,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="F199" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="G199" t="n">
         <v>2</v>
@@ -7806,10 +7782,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="F200" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -7835,10 +7811,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="F201" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -7864,10 +7840,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="F202" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -7893,10 +7869,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="F203" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -7922,10 +7898,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="F204" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -7951,10 +7927,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="F205" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="G205" t="n">
         <v>3</v>
@@ -7980,10 +7956,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="F206" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -8009,10 +7985,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="F207" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="G207" t="n">
         <v>2</v>
@@ -8038,10 +8014,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="F208" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="G208" t="n">
         <v>2</v>
@@ -8067,10 +8043,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="F209" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="G209" t="n">
         <v>2</v>
@@ -8096,10 +8072,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="F210" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="G210" t="n">
         <v>2</v>
@@ -8125,10 +8101,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="F211" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="G211" t="n">
         <v>2</v>
@@ -8154,10 +8130,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="F212" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="G212" t="n">
         <v>2</v>
@@ -8183,10 +8159,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="F213" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -8212,10 +8188,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="F214" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="G214" t="n">
         <v>2</v>
@@ -8241,10 +8217,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="F215" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="G215" t="n">
         <v>2</v>
@@ -8270,10 +8246,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="F216" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -8299,10 +8275,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="F217" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="G217" t="n">
         <v>2</v>
@@ -8328,10 +8304,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="F218" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="G218" t="n">
         <v>2</v>
@@ -8357,10 +8333,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="F219" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -8386,10 +8362,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="F220" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -8415,10 +8391,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="F221" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -8444,10 +8420,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="F222" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="G222" t="n">
         <v>2</v>
@@ -8473,10 +8449,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="F223" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -8502,10 +8478,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="F224" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -8531,10 +8507,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="F225" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -8560,10 +8536,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="F226" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -8589,10 +8565,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="F227" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -8618,10 +8594,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="F228" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -8647,10 +8623,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="F229" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -8676,10 +8652,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="F230" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -8705,10 +8681,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="F231" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -8734,10 +8710,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="F232" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -8763,10 +8739,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="F233" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="G233" t="n">
         <v>2</v>
@@ -8792,10 +8768,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="F234" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
@@ -8821,10 +8797,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="F235" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="G235" t="n">
         <v>2</v>
@@ -8850,10 +8826,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="F236" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -8879,10 +8855,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="F237" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -8908,10 +8884,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="F238" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -8937,10 +8913,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="F239" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -8966,10 +8942,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="F240" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="G240" t="n">
         <v>1</v>
@@ -8995,10 +8971,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="F241" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
@@ -9024,10 +9000,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="F242" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -9053,10 +9029,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="F243" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -9082,10 +9058,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="F244" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -9111,10 +9087,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="F245" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -9140,10 +9116,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="F246" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
@@ -9169,10 +9145,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="F247" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="G247" t="n">
         <v>1</v>
@@ -9198,10 +9174,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="F248" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="G248" t="n">
         <v>1</v>
@@ -9227,10 +9203,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="F249" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -9256,10 +9232,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="F250" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
@@ -9285,10 +9261,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
       <c r="F251" t="s">
-        <v>498</v>
+        <v>490</v>
       </c>
       <c r="G251" t="n">
         <v>1</v>
@@ -9314,10 +9290,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="F252" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="G252" t="n">
         <v>1</v>
@@ -9343,10 +9319,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>501</v>
+        <v>493</v>
       </c>
       <c r="F253" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="G253" t="n">
         <v>1</v>
@@ -9372,10 +9348,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
       <c r="F254" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="G254" t="n">
         <v>1</v>
@@ -9401,10 +9377,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="F255" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="G255" t="n">
         <v>1</v>
@@ -9430,10 +9406,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="F256" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
       <c r="G256" t="n">
         <v>1</v>
@@ -9459,10 +9435,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="F257" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="G257" t="n">
         <v>1</v>
@@ -9488,10 +9464,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
       <c r="F258" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="G258" t="n">
         <v>1</v>
@@ -9517,10 +9493,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="F259" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="G259" t="n">
         <v>1</v>
@@ -9546,10 +9522,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
       <c r="F260" t="s">
-        <v>514</v>
+        <v>506</v>
       </c>
       <c r="G260" t="n">
         <v>1</v>
@@ -9575,10 +9551,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
       <c r="F261" t="s">
-        <v>516</v>
+        <v>508</v>
       </c>
       <c r="G261" t="n">
         <v>1</v>
@@ -9604,10 +9580,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>517</v>
+        <v>509</v>
       </c>
       <c r="F262" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="G262" t="n">
         <v>1</v>
@@ -9633,10 +9609,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>519</v>
+        <v>511</v>
       </c>
       <c r="F263" t="s">
-        <v>520</v>
+        <v>512</v>
       </c>
       <c r="G263" t="n">
         <v>1</v>
@@ -9662,10 +9638,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="F264" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="G264" t="n">
         <v>1</v>
@@ -9720,10 +9696,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="F266" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
       <c r="G266" t="n">
         <v>1</v>
@@ -9749,10 +9725,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="F267" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="G267" t="n">
         <v>1</v>
@@ -9778,10 +9754,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
       <c r="F268" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="G268" t="n">
         <v>1</v>
@@ -9807,10 +9783,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="F269" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="G269" t="n">
         <v>1</v>
@@ -9836,10 +9812,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="F270" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
       <c r="G270" t="n">
         <v>1</v>
@@ -9865,10 +9841,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="F271" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
       <c r="G271" t="n">
         <v>1</v>
@@ -9894,10 +9870,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="F272" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
       <c r="G272" t="n">
         <v>1</v>
@@ -9923,10 +9899,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
       <c r="F273" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="G273" t="n">
         <v>2</v>
@@ -9952,10 +9928,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
-        <v>539</v>
+        <v>531</v>
       </c>
       <c r="F274" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="G274" t="n">
         <v>1</v>
@@ -9981,10 +9957,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>541</v>
+        <v>533</v>
       </c>
       <c r="F275" t="s">
-        <v>542</v>
+        <v>534</v>
       </c>
       <c r="G275" t="n">
         <v>1</v>
@@ -10010,10 +9986,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>543</v>
+        <v>535</v>
       </c>
       <c r="F276" t="s">
-        <v>544</v>
+        <v>536</v>
       </c>
       <c r="G276" t="n">
         <v>1</v>
@@ -10039,10 +10015,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
       <c r="F277" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="G277" t="n">
         <v>1</v>
@@ -10068,10 +10044,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
-        <v>547</v>
+        <v>539</v>
       </c>
       <c r="F278" t="s">
-        <v>548</v>
+        <v>540</v>
       </c>
       <c r="G278" t="n">
         <v>1</v>
@@ -10097,10 +10073,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
-        <v>549</v>
+        <v>541</v>
       </c>
       <c r="F279" t="s">
-        <v>550</v>
+        <v>542</v>
       </c>
       <c r="G279" t="n">
         <v>1</v>

--- a/xlsx/酒_intext.xlsx
+++ b/xlsx/酒_intext.xlsx
@@ -29,7 +29,7 @@
     <t>酒精</t>
   </si>
   <si>
-    <t>政策_政策_加州_酒</t>
+    <t>体育运动_体育运动_古希腊_酒</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%99%E9%86%87</t>
